--- a/Results.xlsx
+++ b/Results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ASOHA Classic</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>MWFA_L3</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -402,7 +405,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>7</v>
       </c>
@@ -419,12 +422,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6247</v>
+        <v>6257</v>
       </c>
       <c r="C2">
         <v>256</v>
@@ -433,18 +436,18 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="F2">
-        <v>7.0590000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7.6909999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="C3">
         <v>555</v>
@@ -453,18 +456,18 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.5</v>
+        <v>5.9</v>
       </c>
       <c r="F3">
-        <v>5.0259999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>5.8760000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="C4">
         <v>553</v>
@@ -473,13 +476,13 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="F4">
-        <v>4.7670000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5.1589999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -493,13 +496,13 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="F5">
-        <v>4.6429999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4.6879999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -513,18 +516,18 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C7">
         <v>593</v>
@@ -536,35 +539,38 @@
         <v>4.7</v>
       </c>
       <c r="F7">
-        <v>4.6959999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>4.6790000000000003</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3623</v>
+        <v>3624</v>
       </c>
       <c r="C8">
-        <v>337</v>
+        <v>593</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="F8">
-        <v>6.1959999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>4.6790000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3139</v>
+        <v>3199</v>
       </c>
       <c r="C9">
         <v>353</v>
@@ -576,15 +582,15 @@
         <v>7.1</v>
       </c>
       <c r="F9">
-        <v>6.9409999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>7.0880000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>3143</v>
+        <v>3209</v>
       </c>
       <c r="C10">
         <v>481</v>
@@ -596,7 +602,7 @@
         <v>6.5</v>
       </c>
       <c r="F10">
-        <v>6.5</v>
+        <v>6.4530000000000003</v>
       </c>
     </row>
   </sheetData>
